--- a/testdata/danhsachnutu.xlsx
+++ b/testdata/danhsachnutu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Anh\MTGNT\hrm_monastery\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/worker/work/github/hrm_monastery/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BAE976-ABF2-144F-9BEC-BDDF66AF6A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2485,12 +2486,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -2564,9 +2565,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2604,9 +2605,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2641,7 +2642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2676,7 +2677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2849,42 +2850,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="102" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" t="s">
         <v>56</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>40911</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3290,20 +3291,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>190</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>196</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>210</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>218</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>220</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>222</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>224</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>226</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>230</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>234</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>240</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>248</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>250</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>252</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>256</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>258</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>266</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>274</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>278</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>280</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>288</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>292</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>294</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>296</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>298</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>300</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>302</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>304</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>310</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>312</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>313</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>315</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>317</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>319</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>321</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>323</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>325</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>327</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>329</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>331</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>333</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>335</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>337</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>339</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>341</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>343</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>345</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>347</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>349</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>351</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>353</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>355</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>357</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>359</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>361</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>363</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>365</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>367</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>369</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>371</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>373</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>375</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>377</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>379</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>381</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>383</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>385</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>387</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>389</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>391</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>393</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>395</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>397</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>399</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>401</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>403</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>405</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>407</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>409</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>411</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>413</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>415</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>417</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>419</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>421</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>425</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>427</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>429</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>431</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>433</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>435</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>437</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>439</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>441</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>443</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>445</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>447</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>449</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>451</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>453</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>455</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>457</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>459</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>461</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>463</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>465</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>467</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>469</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>471</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>473</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>475</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>477</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>479</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>481</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>483</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>485</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>487</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>489</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>491</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>493</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>495</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>497</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>499</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>501</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>503</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>505</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>507</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>509</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>513</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>515</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>517</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>519</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>521</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>523</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>525</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>527</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>529</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>531</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>533</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>535</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>537</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>539</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>541</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>543</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>545</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>547</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>549</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>551</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>553</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>555</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>557</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>559</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>561</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>563</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>565</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>567</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>569</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>571</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>573</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>575</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>577</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>579</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>581</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>583</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>585</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>587</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>589</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>591</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>593</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>595</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>597</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>599</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>601</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>603</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>605</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>607</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>609</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>611</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>613</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>615</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>617</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>619</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>621</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>623</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>625</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>627</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>629</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>631</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>633</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>635</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>637</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>639</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>639</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>640</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>642</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>644</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>646</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>648</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>650</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>652</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>654</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>656</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>658</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>660</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>662</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>664</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>666</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>668</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>670</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>672</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>674</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>676</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>678</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>680</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>682</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>684</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>686</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>688</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>690</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>692</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>694</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>696</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>698</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>700</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>702</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>704</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>706</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>708</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>710</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>712</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>714</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>716</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>718</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>720</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>722</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>724</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>726</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>728</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>730</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>732</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>734</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>736</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>738</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>740</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>742</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>744</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>746</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>748</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>750</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>752</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>754</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>756</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>758</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>760</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>762</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>764</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>766</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>768</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>770</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>772</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>774</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>776</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>778</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>780</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>782</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>784</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>786</v>
       </c>
@@ -6111,7 +6112,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>788</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>790</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>792</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>794</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>796</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>798</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>800</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>802</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2">
       <c r="A360" t="s">
         <v>804</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>806</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>808</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>810</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2">
       <c r="A364" t="s">
         <v>812</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>814</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2">
       <c r="A366" t="s">
         <v>816</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>818</v>
       </c>
